--- a/website_content_creation/authors/Asun_Rodriguez/Author_form_AsunRodriguez.xlsx
+++ b/website_content_creation/authors/Asun_Rodriguez/Author_form_AsunRodriguez.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_5CBD4A760BBA873CEDEF9625C438EA7DBC09B1C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498B875C-A32D-4F1C-A86E-13C955E388DB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29880" yWindow="240" windowWidth="28770" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,11 +187,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -612,66 +619,69 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,7 +901,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -916,7 +926,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1009,7 +1019,7 @@
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="s">
@@ -1022,11 +1032,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
@@ -1043,7 +1053,7 @@
       <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="20">
@@ -1054,7 +1064,7 @@
       <c r="A19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="22">
@@ -1065,7 +1075,7 @@
       <c r="A20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="22">
@@ -1084,10 +1094,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">

--- a/website_content_creation/authors/Asun_Rodriguez/Author_form_AsunRodriguez.xlsx
+++ b/website_content_creation/authors/Asun_Rodriguez/Author_form_AsunRodriguez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Asun_Rodriguez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5CBD4A760BBA873CEDEF9625C438EA7DBC09B1C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498B875C-A32D-4F1C-A86E-13C955E388DB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_5CBD4A760BBA873CEDEF9625C438EA7DBC09B1C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19FD4F0E-9F47-4397-9855-C5A35A81FBA9}"/>
   <bookViews>
-    <workbookView xWindow="-29880" yWindow="240" windowWidth="28770" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <t>I am interested in understanding how forests recover over the long-term after human impacts by studying crucial biotic interactions above- and below-ground</t>
   </si>
   <si>
-    <t>Visiting Scientists</t>
+    <t>Visiting and Contributing Scientists</t>
   </si>
 </sst>
 </file>
@@ -670,6 +670,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,9 +682,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -901,7 +901,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1032,11 +1032,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
@@ -1064,7 +1064,7 @@
       <c r="A19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="22">
@@ -1075,7 +1075,7 @@
       <c r="A20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="22">
@@ -1094,10 +1094,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="43"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2151,5 +2151,14 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId5"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{219619fd-75dc-48cb-820d-8f683a95dd8b}" enabled="1" method="Privileged" siteId="{05c95b33-90ca-49d5-b644-288b930b912b}" removed="0"/>
+</clbl:labelList>
 </file>